--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,99 +40,105 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>cancelled</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
@@ -154,40 +160,58 @@
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
@@ -196,97 +220,91 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>giving</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>dear</t>
@@ -295,24 +313,15 @@
     <t>alert</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
@@ -322,10 +331,7 @@
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -773,16 +779,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.9230769230769231</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -802,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -820,31 +826,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="L4">
-        <v>42</v>
-      </c>
-      <c r="M4">
-        <v>42</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.8916666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8047945205479452</v>
+        <v>0.7842465753424658</v>
       </c>
       <c r="C7">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D7">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.8421052631578947</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.8407310704960835</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>322</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8015665796344648</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>307</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,16 +1229,16 @@
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6923076923076923</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1320,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6756756756756757</v>
+        <v>0.64</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,49 +1458,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>22</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L17">
+        <v>44</v>
+      </c>
+      <c r="M17">
+        <v>44</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>14</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K17">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
-      <c r="M17">
-        <v>21</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.576271186440678</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1520,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1552,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5238095238095238</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C19">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K19">
-        <v>0.775</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5185185185185185</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -1620,31 +1626,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>13</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20">
-        <v>0.7735849056603774</v>
-      </c>
-      <c r="L20">
-        <v>82</v>
-      </c>
-      <c r="M20">
-        <v>82</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5098039215686274</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.7682926829268293</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1694,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1702,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5096899224806202</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C22">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1720,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.7674418604651163</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1752,49 +1758,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.5058139534883721</v>
       </c>
       <c r="C23">
+        <v>261</v>
+      </c>
+      <c r="D23">
+        <v>261</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>255</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L23">
+        <v>43</v>
+      </c>
+      <c r="M23">
+        <v>43</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>20</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L23">
-        <v>35</v>
-      </c>
-      <c r="M23">
-        <v>35</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,38 +1808,38 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4838709677419355</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L24">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>15</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>16</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L24">
-        <v>35</v>
-      </c>
-      <c r="M24">
-        <v>35</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4697986577181208</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1870,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1920,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.6984126984126984</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1944,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4193548387096774</v>
+        <v>0.4496644295302014</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1970,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,16 +2029,16 @@
         <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.6785714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2044,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2052,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>0.40625</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2070,19 +2076,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2094,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2102,13 +2108,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2120,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.6411764705882353</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L30">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2144,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2152,13 +2158,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2170,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.6285714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2194,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2223,16 +2229,16 @@
         <v>23</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.6135593220338983</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2244,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2252,13 +2258,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.358974358974359</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2270,19 +2276,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K33">
-        <v>0.6153846153846154</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2294,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2302,38 +2308,38 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>25</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34">
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="L34">
         <v>20</v>
       </c>
-      <c r="D34">
+      <c r="M34">
         <v>20</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>36</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34">
-        <v>0.5941422594142259</v>
-      </c>
-      <c r="L34">
-        <v>142</v>
-      </c>
-      <c r="M34">
-        <v>142</v>
-      </c>
       <c r="N34">
         <v>1</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2352,49 +2358,49 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2888888888888889</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>36</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>0.6</v>
+      </c>
+      <c r="L35">
+        <v>39</v>
+      </c>
+      <c r="M35">
+        <v>39</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>26</v>
-      </c>
-      <c r="D35">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>64</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="L35">
-        <v>13</v>
-      </c>
-      <c r="M35">
-        <v>13</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2402,7 +2408,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2467532467532468</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C36">
         <v>19</v>
@@ -2420,31 +2426,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.5816326530612245</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L36">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="N36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2452,13 +2458,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2420634920634921</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C37">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2470,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.574468085106383</v>
+        <v>0.58</v>
       </c>
       <c r="L37">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2502,13 +2508,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2520,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2544,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2552,13 +2558,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1474530831099196</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2570,19 +2576,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>318</v>
+        <v>195</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.5454545454545454</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2594,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2602,7 +2608,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.05666666666666666</v>
+        <v>0.2125</v>
       </c>
       <c r="C40">
         <v>17</v>
@@ -2620,19 +2626,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.54</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2644,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2652,37 +2658,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.008698453608247423</v>
+        <v>0.1420911528150134</v>
       </c>
       <c r="C41">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>53</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>320</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L41">
         <v>27</v>
       </c>
-      <c r="D41">
-        <v>30</v>
-      </c>
-      <c r="E41">
-        <v>0.1</v>
-      </c>
-      <c r="F41">
-        <v>0.9</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>3077</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L41">
-        <v>15</v>
-      </c>
       <c r="M41">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2694,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2702,37 +2708,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.007476635514018692</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>19</v>
       </c>
       <c r="E42">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2124</v>
+        <v>281</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>0.5285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2744,21 +2750,45 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.01120689655172414</v>
+      </c>
+      <c r="C43">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F43">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1147</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>0.5280898876404494</v>
+        <v>0.5</v>
       </c>
       <c r="L43">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2770,15 +2800,39 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.0109642050951306</v>
+      </c>
+      <c r="C44">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>0.15</v>
+      </c>
+      <c r="F44">
+        <v>0.85</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3067</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
         <v>14</v>
@@ -2796,73 +2850,121 @@
         <v>0</v>
       </c>
       <c r="Q44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.008874357776739842</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>21</v>
+      </c>
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
+        <v>0.9</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2122</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="L45">
+        <v>22</v>
+      </c>
+      <c r="M45">
+        <v>22</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.004394224733207784</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>0.52</v>
+      </c>
+      <c r="F46">
+        <v>0.48</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>3172</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K46">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L46">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45">
-        <v>0.5</v>
-      </c>
-      <c r="L45">
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>14</v>
-      </c>
-      <c r="M45">
-        <v>14</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K46">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L46">
-        <v>18</v>
-      </c>
-      <c r="M46">
-        <v>18</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K47">
-        <v>0.4222222222222222</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2874,21 +2976,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K48">
-        <v>0.4117647058823529</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2900,21 +3002,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K49">
-        <v>0.3461538461538461</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L49">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2926,21 +3028,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K50">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2952,21 +3054,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K51">
-        <v>0.3150684931506849</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2978,21 +3080,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K52">
-        <v>0.296875</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3004,21 +3106,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K53">
-        <v>0.2711864406779661</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3030,21 +3132,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.2622950819672131</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3056,21 +3158,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K55">
-        <v>0.1559633027522936</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3082,59 +3184,33 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>92</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="K56">
-        <v>0.1370967741935484</v>
+        <v>0.004706620646375902</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K57">
-        <v>0.004700720777185835</v>
-      </c>
-      <c r="L57">
-        <v>15</v>
-      </c>
-      <c r="M57">
-        <v>25</v>
-      </c>
-      <c r="N57">
-        <v>0.6</v>
-      </c>
-      <c r="O57">
-        <v>0.4</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>3176</v>
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
